--- a/src/make_dummy_data/科目一覧.xlsx
+++ b/src/make_dummy_data/科目一覧.xlsx
@@ -458,68 +458,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8428-8815</t>
+          <t>3315-9501</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ゆるふわプログラミング</t>
+          <t>雰囲気合意形成論</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D2" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>442352</t>
+          <t>272203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>雑談力応用演習</t>
+          <t>深夜テンション工学</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7554-1915</t>
+          <t>114586</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>バズり現象解析</t>
+          <t>とりあえず保存学</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>2025</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9227-8556</t>
+          <t>8176-2165</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>気合と根性の数理</t>
+          <t>ショートカット過信学</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D5" t="n">
         <v>2025</v>
@@ -528,88 +530,86 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0336-2612</t>
+          <t>668198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>後でやる管理論</t>
+          <t>突然のやる気論</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2021</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4841-3933</t>
+          <t>460350</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>根拠薄弱推論学</t>
+          <t>雑談力応用演習</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2021</v>
       </c>
       <c r="D7" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0481-9480</t>
+          <t>1854-4773</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>三日坊主持続可能性</t>
+          <t>最終版（仮）研究</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D8" t="n">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5158-1290</t>
+          <t>0666-0532</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>説明書未読文化</t>
+          <t>微妙な沈黙論</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D9" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>631049</t>
+          <t>668931</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>気づいたら夜明け学</t>
+          <t>優先順位混乱学</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="n">
         <v>2025</v>
@@ -618,28 +618,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>087725</t>
+          <t>8688-5235</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>設定迷子論</t>
+          <t>雰囲気でわかる量子力学</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>520766</t>
+          <t>3813-3671</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>原因不明現象学</t>
+          <t>それ後で送ります論</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -652,25 +654,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7193-5017</t>
+          <t>7085-0372</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>レポート生成錬金術</t>
+          <t>やる気探索アルゴリズム</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8129-5773</t>
+          <t>0986-9133</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -679,7 +681,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D14" t="n">
         <v>2023</v>
@@ -688,70 +690,70 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>946324</t>
+          <t>933121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>時間が溶ける情報科学</t>
+          <t>永久仮置きファイル学</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>115932</t>
+          <t>670462</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>よろしくお願いします学</t>
+          <t>無料だけ使う戦略論</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D16" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>260037</t>
+          <t>1084-1004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>雑なまとめ方特講</t>
+          <t>返信タイミング最適化</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5977-2977</t>
+          <t>934269</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CC入れすぎ問題研究</t>
+          <t>了解です学概論</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D18" t="n">
         <v>2024</v>
@@ -760,34 +762,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>933677</t>
+          <t>574814</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>最終版（仮）研究</t>
+          <t>後でやる管理論</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>912051</t>
+          <t>9745-0145</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>買って満足経済学</t>
+          <t>よろしくお願いします学</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D20" t="n">
         <v>2024</v>
@@ -796,17 +798,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9243-0195</t>
+          <t>8593-4837</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>謎仕様解読演習</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>未完成美学特講</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2021</v>
+      </c>
       <c r="D21" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
